--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001496</t>
+          <t>000173</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信聚焦30股票</t>
+          <t>汇添富美丽30混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>28.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000173</t>
+          <t>001140</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富美丽30混合</t>
+          <t>工银总回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001140</t>
+          <t>001496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银总回报灵活配置混合A</t>
+          <t>工银瑞信聚焦30股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>84.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.21</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011477</t>
+          <t>487021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银总回报灵活配置混合C</t>
+          <t>工银瑞信优质精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>487021</t>
+          <t>011477</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信优质精选混合</t>
+          <t>工银总回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>75.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000173</t>
+          <t>519008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富美丽30混合</t>
+          <t>汇添富优势精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>30.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4422</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -790,25 +900,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000175</t>
+          <t>000173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富高息债债券C</t>
+          <t>汇添富美丽30混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.38</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.59</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0655</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001140</t>
+          <t>000175</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银总回报灵活配置混合A</t>
+          <t>汇添富高息债债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.07</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -846,25 +976,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011477</t>
+          <t>001140</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银总回报灵活配置混合C</t>
+          <t>工银总回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>90.07</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.57</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.81</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.99</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>86.08</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519008</t>
+          <t>011477</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富优势精选混合</t>
+          <t>工银总回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,324 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1847</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7506</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1446,4 +1447,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1731,4 +1732,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1740,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,17 +1752,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1771,14 +1792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1787,14 +1830,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.18</v>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1803,14 +1868,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.25</v>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1819,13 +1906,719 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2517,7 +2518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2528,17 +2529,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2548,14 +2569,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.54</v>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2564,14 +2607,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2580,14 +2645,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.18</v>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2596,14 +2683,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.25</v>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2612,13 +2721,355 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2952,7 +2953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2963,17 +2964,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2983,14 +3004,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2999,14 +3042,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.54</v>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3015,14 +3080,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3031,14 +3118,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.18</v>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3047,14 +3156,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.25</v>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3063,13 +3194,523 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.18</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>8.25</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.09</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1657,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2433,7 +2696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2717,7 +2980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3037,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3435,7 +3698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603027-千禾味业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.18</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>8.25</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.09</v>
       </c>
     </row>
@@ -616,7 +633,1561 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发消费领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方天元新产业股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015346</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000955</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方产业活力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012203</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012691</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发消费领先混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010984</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳安混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010985</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保稳安混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>017461</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,7 +2433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1486,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1920,7 +3491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2696,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2980,7 +4551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3300,7 +4871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3696,288 +5267,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000173</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富美丽30混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6063</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001140</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2176</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001496</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信聚焦30股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1144</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002472</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信先进服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0935</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>487021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信优质精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011477</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>